--- a/DataFiles/Module2.xlsx
+++ b/DataFiles/Module2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>TestingMasters</t>
   </si>

--- a/DataFiles/Module2.xlsx
+++ b/DataFiles/Module2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
   <si>
     <t>TestingMasters</t>
   </si>
